--- a/medicine/Hématologie/Syndrome_de_Lasthénie_de_Ferjol/Syndrome_de_Lasthénie_de_Ferjol.xlsx
+++ b/medicine/Hématologie/Syndrome_de_Lasthénie_de_Ferjol/Syndrome_de_Lasthénie_de_Ferjol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_Lasth%C3%A9nie_de_Ferjol</t>
+          <t>Syndrome_de_Lasthénie_de_Ferjol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Lasthénie de Ferjol est un trouble factice (ou pathomimie) décrit en 1967 par le Docteur Jean Bernard. Le nom de ce syndrome est tiré de celui de l'héroïne d’Une histoire sans nom de Barbey d’Aurevilly. 
 Une pathomimie est un trouble mental conduisant le sujet à créer ou simuler les symptômes d'une maladie. Dans le cas du syndrome de Lasthénie de Ferjol, il s'agit de provoquer une anémie microcytaire. Les moyens utilisés peuvent être le don de sang répétitif et des scarifications sous anticoagulant. 
